--- a/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/result.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/genko/対象者人数毎のNPD比/result.xlsx
@@ -876,11 +876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472824736"/>
-        <c:axId val="472812976"/>
+        <c:axId val="463293328"/>
+        <c:axId val="463294112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472824736"/>
+        <c:axId val="463293328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -908,7 +908,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -921,7 +921,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="3200"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2800"/>
                   <a:t>対象者人数</a:t>
                 </a:r>
               </a:p>
@@ -941,7 +941,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -994,12 +994,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472812976"/>
+        <c:crossAx val="463294112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472812976"/>
+        <c:axId val="463294112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1027,7 +1027,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1040,11 +1040,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="3200"/>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="2800"/>
                   <a:t>NPD</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="3200"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2800"/>
                   <a:t>比</a:t>
                 </a:r>
               </a:p>
@@ -1064,7 +1064,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1117,7 +1117,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472824736"/>
+        <c:crossAx val="463293328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1727,15 +1727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
